--- a/biology/Zoologie/Fennec/Fennec.xlsx
+++ b/biology/Zoologie/Fennec/Fennec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vulpes zerda
-Le fennec (Vulpes zerda)[1], nommé aussi renard des sables ou renard des sables du Sahara[2] est un petit renard (donc du genre Vulpes et de la famille des Canidés) qui vit dans le désert du Sahara et la péninsule du Sinaï[3]. Avec ses oreilles caractéristiques, il est la plus petite espèce de sa famille. Sa fourrure, ses oreilles et sa fonction rénale sont adaptées aux conditions physiques du désert : températures extrêmes et pénurie d’eau. Ses oreilles lui servent également de système de ventilation et de refroidissement du sang. Elles l'aident à résister aux températures élevées et au climat extrême du désert du Sahara.
+Le fennec (Vulpes zerda), nommé aussi renard des sables ou renard des sables du Sahara est un petit renard (donc du genre Vulpes et de la famille des Canidés) qui vit dans le désert du Sahara et la péninsule du Sinaï. Avec ses oreilles caractéristiques, il est la plus petite espèce de sa famille. Sa fourrure, ses oreilles et sa fonction rénale sont adaptées aux conditions physiques du désert : températures extrêmes et pénurie d’eau. Ses oreilles lui servent également de système de ventilation et de refroidissement du sang. Elles l'aident à résister aux températures élevées et au climat extrême du désert du Sahara.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme fennec vient de l'arabe (فنك). 
-L'épithète spécifique zerda vient du grec et fait référence à son habitat sec (xeros)[4]. Dans une autre langue sémitique, en maltais, fenek désigne un autre animal à longues oreilles tel que le lapin.
+L'épithète spécifique zerda vient du grec et fait référence à son habitat sec (xeros). Dans une autre langue sémitique, en maltais, fenek désigne un autre animal à longues oreilles tel que le lapin.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fennec a de très longues oreilles (pouvant mesurer jusqu'à 10 centimètres), un museau assez long, de longues moustaches et une queue relativement longue, plate et touffue. On le surnomme renard de poche, du fait de sa toute petite taille. C'est en effet le plus petit des canidés qui existe sur Terre. Il mesure de 20 à 40 cm. Son poids moyen est de 1,7 kg contre 6 kg pour la plupart des autres espèces de renard. Sa taille moyenne est d'environ 20 cm (avec environ 15 cm en plus quand on y ajoute les oreilles). Il a un pelage allant du brun pâle à presque blanc et ressemble beaucoup au renard nain auquel il est apparenté, hormis ses oreilles dressées, chacune aussi grande que la face. Sa queue est longue de 18 à 30 cm.
 </t>
@@ -575,16 +591,14 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La nuit, les longues oreilles du fennec lui permettent d'entendre les plus petits bruits que font ses proies, ce qui lui permet de ne pas faire de longues recherches dans le désert. Le fennec est un redoutable chasseur, rusé et véloce. Il est parfaitement adapté au climat aride, ses oreilles très vascularisées et très grandes comparées à celles des autres espèces de renard sont des éléments refroidisseurs. Les poils sous ses pattes lui permettent de ne pas glisser sur le sable et d'approcher ses proies en silence. Le jour, dans le désert, la température du sable est de 70 °C à la surface. Mais le fennec peut creuser jusqu'à deux mètres de profondeur, ramenant ainsi la température aux environs de 30 °C.
-La surface plantaire du fennec est couverte de poils épais qui le protègent de la chaleur du sable[5]. Le fennec creuse très rapidement et, quand il est poursuivi, se cache dans le sable. Son terrier est tapissé d'un ensemble de matériaux moelleux tels que fourrure ou plumes. Le fennec dort généralement le jour et sort la nuit chercher sa nourriture.
+La surface plantaire du fennec est couverte de poils épais qui le protègent de la chaleur du sable. Le fennec creuse très rapidement et, quand il est poursuivi, se cache dans le sable. Son terrier est tapissé d'un ensemble de matériaux moelleux tels que fourrure ou plumes. Le fennec dort généralement le jour et sort la nuit chercher sa nourriture.
 Lorsqu'un vent de sable se lève, les petits fennecs cherchent un abri auprès de leurs parents qui les dissimulent parfois sous leur longue queue touffue.
-Comme le renard, le fennec glapit ou jappe, c'est-à-dire qu'il pousse des petits cris ou grognements successifs. En cas de danger, il est capable de produire un son plus intense[6].
-Régime alimentaire
-Le fennec est omnivore. Il se nourrit essentiellement de souris, de petits oiseaux, de lézards, de poissons de sable (Scincus scincus) ou d'insectes, et complète ce régime avec des fruits. Le fennec s'abreuve parfois à des points d'eau, bien qu'il semble que cela ne soit pas nécessaire. La capacité des fennecs à se passer de boire pour des durées indéterminées résulte de leur adaptation à leur habitat désertique et de leur régime alimentaire : certains insectes figurant au menu du fennec sont constitués de 70 % d'eau. De plus, le système rénal du fennec concentre les urines, ce qui a pour effet une élimination maximale de déchets pour un minimum de perte[7].
-Reproduction
-Le fennec est monogame et les couples restent unis toute la vie. La saison de reproduction a lieu entre janvier et février. La femelle donne naissance à une portée de 2 à 5 petits entre mars et avril, après 50 à 53 jours de gestation. Les petits sont aveugles à la naissance, ils ouvrent les yeux au bout de 2 semaines. Ils commencent à jouer dans la tanière à 4 semaines et sortent jouer dehors après 5 semaines. Les deux parents s'occupent d'eux. Les jeunes atteignent la maturité sexuelle entre 6 et 9 mois, lorsqu'ils atteignent leur taille adulte. La longévité est de 10 ans dans la nature[5].
+Comme le renard, le fennec glapit ou jappe, c'est-à-dire qu'il pousse des petits cris ou grognements successifs. En cas de danger, il est capable de produire un son plus intense.
 </t>
         </is>
       </c>
@@ -610,13 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le fennec est principalement présent dans les régions désertiques d'Afrique du Nord, notamment en Algérie, au Maroc, en Tunisie, en Libye, en Égypte et dans certaines parties du Sahara. Il est bien adapté à la vie dans les environnements désertiques arides.
-Son habitat préférentiel se compose de vastes étendues de déserts, comprenant des dunes de sable, des plaines rocheuses et des zones semi-arides. Les régions où le Fennec se trouve sont caractérisées par des températures extrêmes, allant des climats très chauds pendant la journée aux températures fraîches la nuit.
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fennec est omnivore. Il se nourrit essentiellement de souris, de petits oiseaux, de lézards, de poissons de sable (Scincus scincus) ou d'insectes, et complète ce régime avec des fruits. Le fennec s'abreuve parfois à des points d'eau, bien qu'il semble que cela ne soit pas nécessaire. La capacité des fennecs à se passer de boire pour des durées indéterminées résulte de leur adaptation à leur habitat désertique et de leur régime alimentaire : certains insectes figurant au menu du fennec sont constitués de 70 % d'eau. De plus, le système rénal du fennec concentre les urines, ce qui a pour effet une élimination maximale de déchets pour un minimum de perte.
 </t>
         </is>
       </c>
@@ -642,12 +661,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Interaction écologique</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">On ne connaît pas de prédateurs au fennec bien qu'il puisse y en avoir ; sa tanière, son pelage de couleur sable et son ouïe très fine l'aident à s'en protéger[8]. Seul l'homme peut, en le capturant, devenir un prédateur.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fennec est monogame et les couples restent unis toute la vie. La saison de reproduction a lieu entre janvier et février. La femelle donne naissance à une portée de 2 à 5 petits entre mars et avril, après 50 à 53 jours de gestation. Les petits sont aveugles à la naissance, ils ouvrent les yeux au bout de 2 semaines. Ils commencent à jouer dans la tanière à 4 semaines et sortent jouer dehors après 5 semaines. Les deux parents s'occupent d'eux. Les jeunes atteignent la maturité sexuelle entre 6 et 9 mois, lorsqu'ils atteignent leur taille adulte. La longévité est de 10 ans dans la nature.
 </t>
         </is>
       </c>
@@ -673,22 +698,168 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fennec est principalement présent dans les régions désertiques d'Afrique du Nord, notamment en Algérie, au Maroc, en Tunisie, en Libye, en Égypte et dans certaines parties du Sahara. Il est bien adapté à la vie dans les environnements désertiques arides.
+Son habitat préférentiel se compose de vastes étendues de déserts, comprenant des dunes de sable, des plaines rocheuses et des zones semi-arides. Les régions où le Fennec se trouve sont caractérisées par des températures extrêmes, allant des climats très chauds pendant la journée aux températures fraîches la nuit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fennec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fennec</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Interaction écologique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne connaît pas de prédateurs au fennec bien qu'il puisse y en avoir ; sa tanière, son pelage de couleur sable et son ouïe très fine l'aident à s'en protéger. Seul l'homme peut, en le capturant, devenir un prédateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fennec</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fennec</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Le fennec et l'homme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Statut de protection
-Le fennec est classé comme une espèce "Préoccupation mineure" (Least Concern) selon la liste rouge de l'Union internationale pour la conservation de la nature (UICN)[réf. souhaitée]. Cela signifie que l'espèce est relativement répandue et sa population est considérée comme stable à l'échelle mondiale.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Statut de protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fennec est classé comme une espèce "Préoccupation mineure" (Least Concern) selon la liste rouge de l'Union internationale pour la conservation de la nature (UICN)[réf. souhaitée]. Cela signifie que l'espèce est relativement répandue et sa population est considérée comme stable à l'échelle mondiale.
 Cependant, certains pays ont mis en place des mesures de protection pour le fennec au niveau national. Par exemple, en Algérie, il est protégé par la loi algérienne sur la chasse, qui interdit sa capture et son commerce sans autorisation spécifique[réf. souhaitée]. En Tunisie, le fennec est également protégé par la loi de protection de la faune et de la flore sauvages[réf. souhaitée]. Au Maroc, le Fennec est considéré comme une espèce protégée en vertu de la législation nationale. La loi marocaine sur la protection de la faune et de la flore sauvages interdit la capture, la chasse et le commerce du fennec sans autorisation spécifique[réf. souhaitée]. Le Maroc a également mis en place des aires protégées, telles que les parcs nationaux du Sud du Maroc, où l'habitat du fennec est préservé et où des mesures de conservation sont mises en œuvre[réf. souhaitée].
 Il est important de noter que malgré sa classification en tant qu'espèce "Préoccupation mineure", le Fennec fait face à des menaces telles que la perte d'habitat due à l'expansion humaine, la chasse illégale et le commerce illégal des animaux sauvages. La surveillance continue de ces menaces et la mise en œuvre de mesures de conservation restent essentielles pour assurer la préservation à long terme de cette espèce emblématique du désert.
-Le trafic n'en continue pas moins frauduleusement, le fennec étant un animal de compagnie recherché sur les continents où il est encore autorisé (Amérique du Nord et Japon notamment)[réf. souhaitée]. De plus, ces animaux développent facilement un trouble de la thyroïde et restent des canidés fondamentalement sauvages, même une fois apprivoisés. Ils sont très turbulents la nuit, difficilement propres, s'évadent volontiers et cachent de la nourriture dans les meubles. Enfin, certains vétérinaires refusent de soigner un animal exotique[9][réf. obsolète].
-Dans la culture
-Le Fennec est l'animal national de l'Algérie. Il sert également de surnom à l'équipe d'Algérie de football, « Les Fennecs » (avec celui de Guerriers du désert).
+Le trafic n'en continue pas moins frauduleusement, le fennec étant un animal de compagnie recherché sur les continents où il est encore autorisé (Amérique du Nord et Japon notamment)[réf. souhaitée]. De plus, ces animaux développent facilement un trouble de la thyroïde et restent des canidés fondamentalement sauvages, même une fois apprivoisés. Ils sont très turbulents la nuit, difficilement propres, s'évadent volontiers et cachent de la nourriture dans les meubles. Enfin, certains vétérinaires refusent de soigner un animal exotique[réf. obsolète].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fennec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fennec</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le fennec et l'homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fennec est l'animal national de l'Algérie. Il sert également de surnom à l'équipe d'Algérie de football, « Les Fennecs » (avec celui de Guerriers du désert).
 Dans Le Petit Prince de Saint-Exupery, le dessin du renard est inspiré d'un fennec[réf. souhaitée].
-Fennec est le nom de code de Firefox Mobile, la version pour périphériques mobiles de Mozilla Firefox[10].
-Quelques fennecs de fiction
-Finnick est un personnage dans le film Zootopie de Walt Disney Pictures[11].
+Fennec est le nom de code de Firefox Mobile, la version pour périphériques mobiles de Mozilla Firefox.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fennec</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fennec</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le fennec et l'homme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Quelques fennecs de fiction</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Finnick est un personnage dans le film Zootopie de Walt Disney Pictures.
 Feunnec, Pokémon de sixième génération de type feu, Pokémon de départ des jeux Pokémon X et Y.
 Fenneko, un personnage de la série Aggretsuko 2018 de Netflix.
 Mme. Fennec est un personnage qui possède un salon de beauté dans la série d'animation Sherlock Yack.
